--- a/docs/test_suite.xlsx
+++ b/docs/test_suite.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -131,7 +135,7 @@
     <t>Good Score assignment by Professor</t>
   </si>
   <si>
-    <t> A Professor should be associated to an exam. When a Professor set an exam score that is in the prefixed range (from 18 to 30), the exam score must change accordingly. Professor is a mocked class.</t>
+    <t>A Professor should be associated to an exam. When a Professor set an exam score that is in the prefixed range (from 18 to 30), the exam score must change accordingly. Professor is a mocked class.</t>
   </si>
   <si>
     <t>Bad Score assignment by Professor</t>
@@ -161,12 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -175,22 +175,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -198,7 +183,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -206,7 +191,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -253,124 +238,86 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -429,49 +376,371 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.0037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.9962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5296296296296"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="27" customHeight="1">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="23" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -485,8 +754,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="n">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -499,9 +768,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="75">
       <c r="A6" s="5"/>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -514,9 +783,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -529,9 +798,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="5"/>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -544,9 +813,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -559,9 +828,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="5"/>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -574,9 +843,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="5"/>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -589,15 +858,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -611,8 +880,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6" t="n">
+    <row r="16" spans="1:5" ht="45">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -625,8 +894,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6" t="n">
+    <row r="17" spans="2:5" ht="60">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -639,8 +908,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="n">
+    <row r="18" spans="2:5" ht="45">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -653,8 +922,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6" t="n">
+    <row r="19" spans="2:5" ht="60">
+      <c r="B19" s="6">
         <v>4</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -667,15 +936,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
@@ -689,8 +958,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="n">
+    <row r="23" spans="2:5" ht="30">
+      <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -703,8 +972,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9" t="n">
+    <row r="24" spans="2:5" ht="45">
+      <c r="B24" s="9">
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -717,8 +986,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="n">
+    <row r="25" spans="2:5" ht="45">
+      <c r="B25" s="9">
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -731,8 +1000,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9" t="n">
+    <row r="26" spans="2:5" ht="60">
+      <c r="B26" s="9">
         <v>4</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -745,8 +1014,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="n">
+    <row r="27" spans="2:5" ht="45">
+      <c r="B27" s="9">
         <v>5</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -759,8 +1028,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9" t="n">
+    <row r="28" spans="2:5" ht="75">
+      <c r="B28" s="9">
         <v>6</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -773,8 +1042,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="n">
+    <row r="29" spans="2:5" ht="30">
+      <c r="B29" s="9">
         <v>7</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -787,8 +1056,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="n">
+    <row r="30" spans="2:5" ht="30">
+      <c r="B30" s="16">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -808,12 +1077,12 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B21:E21"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>